--- a/Code/Results/Cases/Case_2_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.2148970255167</v>
+        <v>10.33262446104749</v>
       </c>
       <c r="C2">
-        <v>7.118827498544571</v>
+        <v>9.873561027317718</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.949830801570165</v>
+        <v>13.00405383378493</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>18.6882170278751</v>
+        <v>28.20137921731904</v>
       </c>
       <c r="H2">
-        <v>8.457974136032195</v>
+        <v>14.32643615764225</v>
       </c>
       <c r="I2">
-        <v>13.69741342610235</v>
+        <v>22.66808073631774</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.33902242280838</v>
+        <v>7.552965008185082</v>
       </c>
       <c r="L2">
-        <v>6.299719327432125</v>
+        <v>10.05778039922445</v>
       </c>
       <c r="M2">
-        <v>9.171913901262549</v>
+        <v>13.22454778644626</v>
       </c>
       <c r="N2">
-        <v>12.61770490427603</v>
+        <v>19.09107358500509</v>
       </c>
       <c r="O2">
-        <v>13.22070455431145</v>
+        <v>21.69902459128792</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.41667495961856</v>
+        <v>10.09266965951187</v>
       </c>
       <c r="C3">
-        <v>7.106421115129812</v>
+        <v>9.876141332415109</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.945302073944055</v>
+        <v>13.03341924948185</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>18.76615797379222</v>
+        <v>28.3245588910671</v>
       </c>
       <c r="H3">
-        <v>8.551486643157149</v>
+        <v>14.37139436651309</v>
       </c>
       <c r="I3">
-        <v>13.89017247892909</v>
+        <v>22.75696977219811</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.821106565465531</v>
+        <v>7.375224935248127</v>
       </c>
       <c r="L3">
-        <v>6.216507076724788</v>
+        <v>10.06439272228139</v>
       </c>
       <c r="M3">
-        <v>8.85985552686763</v>
+        <v>13.18783595214496</v>
       </c>
       <c r="N3">
-        <v>12.76082943465719</v>
+        <v>19.13897472483206</v>
       </c>
       <c r="O3">
-        <v>13.35718538871759</v>
+        <v>21.78092948427687</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.89695389060424</v>
+        <v>9.943704471466837</v>
       </c>
       <c r="C4">
-        <v>7.099653574321771</v>
+        <v>9.878151499105732</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.946457810676634</v>
+        <v>13.05328376789502</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>18.83388801046702</v>
+        <v>28.407370458478</v>
       </c>
       <c r="H4">
-        <v>8.612586452371405</v>
+        <v>14.40076975599295</v>
       </c>
       <c r="I4">
-        <v>14.01587032357838</v>
+        <v>22.81497937680768</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.487835196330414</v>
+        <v>7.264577680644237</v>
       </c>
       <c r="L4">
-        <v>6.167462943822342</v>
+        <v>10.06978560556042</v>
       </c>
       <c r="M4">
-        <v>8.665200062399036</v>
+        <v>13.16688245750329</v>
       </c>
       <c r="N4">
-        <v>12.85148963467664</v>
+        <v>19.16993558302467</v>
       </c>
       <c r="O4">
-        <v>13.4495473025092</v>
+        <v>21.83484237639931</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.67769598627585</v>
+        <v>9.88267535005374</v>
       </c>
       <c r="C5">
-        <v>7.097108796895596</v>
+        <v>9.879078213649187</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.947901439720519</v>
+        <v>13.0618402273675</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>18.86627276900235</v>
+        <v>28.4429174845152</v>
       </c>
       <c r="H5">
-        <v>8.63839320724087</v>
+        <v>14.41318638712132</v>
       </c>
       <c r="I5">
-        <v>14.06889658284675</v>
+        <v>22.83948252776553</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.348268834781354</v>
+        <v>7.21916851446175</v>
       </c>
       <c r="L5">
-        <v>6.148007089827656</v>
+        <v>10.07231912286326</v>
       </c>
       <c r="M5">
-        <v>8.585228718357618</v>
+        <v>13.15874887215216</v>
       </c>
       <c r="N5">
-        <v>12.88913843224427</v>
+        <v>19.182942934901</v>
       </c>
       <c r="O5">
-        <v>13.48926703223462</v>
+        <v>21.85772350044326</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.64083678887307</v>
+        <v>9.872524482396516</v>
       </c>
       <c r="C6">
-        <v>7.096699085855315</v>
+        <v>9.87923860372914</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.948199383045086</v>
+        <v>13.06328890390565</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>18.87193296098132</v>
+        <v>28.44892866180529</v>
       </c>
       <c r="H6">
-        <v>8.642732745429145</v>
+        <v>14.41527511026502</v>
       </c>
       <c r="I6">
-        <v>14.0778092793018</v>
+        <v>22.84360345408443</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.324869911367447</v>
+        <v>7.211610903360419</v>
       </c>
       <c r="L6">
-        <v>6.144808883934287</v>
+        <v>10.07276011674933</v>
       </c>
       <c r="M6">
-        <v>8.571914102540866</v>
+        <v>13.15742293148983</v>
       </c>
       <c r="N6">
-        <v>12.89543264731138</v>
+        <v>19.18512641213715</v>
       </c>
       <c r="O6">
-        <v>13.49598616236049</v>
+        <v>21.86157793193659</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.89402716380049</v>
+        <v>9.942882609715888</v>
       </c>
       <c r="C7">
-        <v>7.099618392846223</v>
+        <v>9.878163560986817</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.946473364921704</v>
+        <v>13.05339729425368</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>18.83430567303391</v>
+        <v>28.40784257339457</v>
       </c>
       <c r="H7">
-        <v>8.612930837232724</v>
+        <v>14.40093540466928</v>
       </c>
       <c r="I7">
-        <v>14.01657820680111</v>
+        <v>22.81530633627204</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.485968038326192</v>
+        <v>7.263966487480182</v>
       </c>
       <c r="L7">
-        <v>6.167198390502708</v>
+        <v>10.06981841263334</v>
       </c>
       <c r="M7">
-        <v>8.664123998216745</v>
+        <v>13.16677111720774</v>
       </c>
       <c r="N7">
-        <v>12.85199452262722</v>
+        <v>19.17010942212702</v>
       </c>
       <c r="O7">
-        <v>13.45007464044513</v>
+        <v>21.83514726966354</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.94580146871405</v>
+        <v>10.25027707746877</v>
       </c>
       <c r="C8">
-        <v>7.114372927841102</v>
+        <v>9.874362614908218</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.947442185104749</v>
+        <v>13.01379857645203</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>18.71083802990626</v>
+        <v>28.24235893221665</v>
       </c>
       <c r="H8">
-        <v>8.489441667203293</v>
+        <v>14.34157057885016</v>
       </c>
       <c r="I8">
-        <v>13.76232567264006</v>
+        <v>22.69801804509341</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.16365931152816</v>
+        <v>7.492030331981823</v>
       </c>
       <c r="L8">
-        <v>6.270611868819575</v>
+        <v>10.05978413012583</v>
       </c>
       <c r="M8">
-        <v>9.065017788248413</v>
+        <v>13.21156363738532</v>
       </c>
       <c r="N8">
-        <v>12.66647981606622</v>
+        <v>19.10726890039798</v>
       </c>
       <c r="O8">
-        <v>13.2659418708217</v>
+        <v>21.72651355033389</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.77451734470452</v>
+        <v>10.83655548192569</v>
       </c>
       <c r="C9">
-        <v>7.15008603041469</v>
+        <v>9.870267442974004</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.98130751722474</v>
+        <v>12.95068303718153</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>18.63587409582435</v>
+        <v>27.97500443315293</v>
       </c>
       <c r="H9">
-        <v>8.277377578428064</v>
+        <v>14.23917915583404</v>
       </c>
       <c r="I9">
-        <v>13.32412539943762</v>
+        <v>22.49520065803353</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.36857847126857</v>
+        <v>8.033252703753064</v>
       </c>
       <c r="L9">
-        <v>6.488955187641043</v>
+        <v>10.05064980230035</v>
       </c>
       <c r="M9">
-        <v>9.822242169926266</v>
+        <v>13.3117286990523</v>
       </c>
       <c r="N9">
-        <v>12.324541765415</v>
+        <v>18.99628870347987</v>
       </c>
       <c r="O9">
-        <v>12.97619811711395</v>
+        <v>21.54222227566351</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.97725933471338</v>
+        <v>11.25274438842421</v>
       </c>
       <c r="C10">
-        <v>7.180512102097052</v>
+        <v>9.869279079210697</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.026621109552128</v>
+        <v>12.91315361893745</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>18.69538163282079</v>
+        <v>27.81368994030746</v>
       </c>
       <c r="H10">
-        <v>8.141246481267364</v>
+        <v>14.17246163711538</v>
       </c>
       <c r="I10">
-        <v>13.04223933521602</v>
+        <v>22.36270475388878</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.17532389152844</v>
+        <v>8.418933379144404</v>
       </c>
       <c r="L10">
-        <v>6.657860205569347</v>
+        <v>10.05031878277117</v>
       </c>
       <c r="M10">
-        <v>10.35535611000186</v>
+        <v>13.39245502167847</v>
       </c>
       <c r="N10">
-        <v>12.08635383741042</v>
+        <v>18.9221579454228</v>
       </c>
       <c r="O10">
-        <v>12.81179415229161</v>
+        <v>21.42433311739741</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.49424477212944</v>
+        <v>11.43806684933185</v>
       </c>
       <c r="C11">
-        <v>7.195276004935922</v>
+        <v>9.869262348402483</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.051856247425508</v>
+        <v>12.89799548058219</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>18.74992759991809</v>
+        <v>27.74798264632985</v>
       </c>
       <c r="H11">
-        <v>8.083914630351849</v>
+        <v>14.14394969246939</v>
       </c>
       <c r="I11">
-        <v>12.92351115930768</v>
+        <v>22.30600285414072</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.52489944988</v>
+        <v>8.587313226804779</v>
       </c>
       <c r="L11">
-        <v>6.736323404463579</v>
+        <v>10.05154200688063</v>
       </c>
       <c r="M11">
-        <v>10.59186826906713</v>
+        <v>13.43064210171907</v>
       </c>
       <c r="N11">
-        <v>11.98076823638162</v>
+        <v>18.89002918414334</v>
       </c>
       <c r="O11">
-        <v>12.7486946293968</v>
+        <v>21.37450250922416</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.68571214022683</v>
+        <v>11.50760344027402</v>
       </c>
       <c r="C12">
-        <v>7.201000487056657</v>
+        <v>9.869317758266028</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.062090335329543</v>
+        <v>12.89253030366823</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>18.77473440707767</v>
+        <v>27.72420912001829</v>
       </c>
       <c r="H12">
-        <v>8.06289553497945</v>
+        <v>14.13341670743</v>
       </c>
       <c r="I12">
-        <v>12.8799943780084</v>
+        <v>22.28504405482627</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.65474897175542</v>
+        <v>8.650025345616282</v>
       </c>
       <c r="L12">
-        <v>6.766250839228974</v>
+        <v>10.05220163818679</v>
       </c>
       <c r="M12">
-        <v>10.68049785571987</v>
+        <v>13.44530533383967</v>
       </c>
       <c r="N12">
-        <v>11.94117970915302</v>
+        <v>18.87809107747663</v>
       </c>
       <c r="O12">
-        <v>12.72658436334264</v>
+        <v>21.35617904901484</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.64466711603883</v>
+        <v>11.4926569853929</v>
       </c>
       <c r="C13">
-        <v>7.199761653602941</v>
+        <v>9.869303086665285</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.059855878699311</v>
+        <v>12.89369510820745</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>18.7692041098098</v>
+        <v>27.72927980499056</v>
       </c>
       <c r="H13">
-        <v>8.067391117406929</v>
+        <v>14.1356734457426</v>
       </c>
       <c r="I13">
-        <v>12.88930102475467</v>
+        <v>22.28953510076072</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.62689623153143</v>
+        <v>8.636566340229653</v>
       </c>
       <c r="L13">
-        <v>6.759796160591799</v>
+        <v>10.05205085765852</v>
       </c>
       <c r="M13">
-        <v>10.66145236041634</v>
+        <v>13.44213846222876</v>
       </c>
       <c r="N13">
-        <v>11.94968831519744</v>
+        <v>18.88065201887973</v>
       </c>
       <c r="O13">
-        <v>12.73126515564507</v>
+        <v>21.3601010334577</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.51008297798653</v>
+        <v>11.44380086899761</v>
       </c>
       <c r="C14">
-        <v>7.195744275675782</v>
+        <v>9.869265672427908</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.052684548255076</v>
+        <v>12.89754035042348</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>18.75188416172259</v>
+        <v>27.74600454375926</v>
       </c>
       <c r="H14">
-        <v>8.082171339561386</v>
+        <v>14.14307785170242</v>
       </c>
       <c r="I14">
-        <v>12.91990162457274</v>
+        <v>22.30426828326248</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.53563299937611</v>
+        <v>8.592493803816462</v>
       </c>
       <c r="L14">
-        <v>6.738781348304766</v>
+        <v>10.05159234529092</v>
       </c>
       <c r="M14">
-        <v>10.59917892865251</v>
+        <v>13.43184444034222</v>
       </c>
       <c r="N14">
-        <v>11.97750337774353</v>
+        <v>18.88904245690141</v>
       </c>
       <c r="O14">
-        <v>12.74683923779921</v>
+        <v>21.37298407708377</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.42708677914618</v>
+        <v>11.4137897590786</v>
       </c>
       <c r="C15">
-        <v>7.193300960208604</v>
+        <v>9.869250781221513</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.048380592321067</v>
+        <v>12.89993145826397</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>18.74182159153348</v>
+        <v>27.7563934118627</v>
       </c>
       <c r="H15">
-        <v>8.0913156201728</v>
+        <v>14.14764761432035</v>
       </c>
       <c r="I15">
-        <v>12.93883568621402</v>
+        <v>22.31335957229667</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.47940198014589</v>
+        <v>8.565360485808981</v>
       </c>
       <c r="L15">
-        <v>6.725936628562486</v>
+        <v>10.0513370384026</v>
       </c>
       <c r="M15">
-        <v>10.560911331302</v>
+        <v>13.42556520102098</v>
       </c>
       <c r="N15">
-        <v>11.99459217833732</v>
+        <v>18.89421155749079</v>
       </c>
       <c r="O15">
-        <v>12.75661431425425</v>
+        <v>21.38094646503981</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.94286912731397</v>
+        <v>11.24054686830191</v>
       </c>
       <c r="C16">
-        <v>7.179565901094366</v>
+        <v>9.869288840450011</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.0250661102568</v>
+        <v>12.91418272572754</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>18.69238719156528</v>
+        <v>27.81813891966365</v>
       </c>
       <c r="H16">
-        <v>8.145088262004039</v>
+        <v>14.17436190924619</v>
       </c>
       <c r="I16">
-        <v>13.05019610616897</v>
+        <v>22.36648216957692</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.15212572627789</v>
+        <v>8.40778419138846</v>
       </c>
       <c r="L16">
-        <v>6.652763577840819</v>
+        <v>10.0502663920515</v>
       </c>
       <c r="M16">
-        <v>10.33977255122856</v>
+        <v>13.38998819734031</v>
       </c>
       <c r="N16">
-        <v>12.09330948371588</v>
+        <v>18.92428963490222</v>
       </c>
       <c r="O16">
-        <v>12.81616178022648</v>
+        <v>21.42766610189482</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.63811766093506</v>
+        <v>11.13319444208167</v>
       </c>
       <c r="C17">
-        <v>7.17137695211789</v>
+        <v>9.869422703853758</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.011957073547389</v>
+        <v>12.92341542685701</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>18.66924398580293</v>
+        <v>27.85798703417264</v>
       </c>
       <c r="H17">
-        <v>8.179273793076442</v>
+        <v>14.19122073737043</v>
       </c>
       <c r="I17">
-        <v>13.12099832867617</v>
+        <v>22.39998542064902</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.94687290511764</v>
+        <v>8.309280908587628</v>
       </c>
       <c r="L17">
-        <v>6.608277589976407</v>
+        <v>10.04996067251793</v>
       </c>
       <c r="M17">
-        <v>10.20252118039296</v>
+        <v>13.36853231713309</v>
       </c>
       <c r="N17">
-        <v>12.1545755322238</v>
+        <v>18.94314916144975</v>
       </c>
       <c r="O17">
-        <v>12.85575791376687</v>
+        <v>21.45729991796849</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.45999305197104</v>
+        <v>11.07107487507228</v>
       </c>
       <c r="C18">
-        <v>7.16675369130138</v>
+        <v>9.869540473685198</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.004851378593246</v>
+        <v>12.92890602865321</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>18.65850739316067</v>
+        <v>27.88162879704357</v>
       </c>
       <c r="H18">
-        <v>8.199366921439836</v>
+        <v>14.20109053521898</v>
       </c>
       <c r="I18">
-        <v>13.1626113933258</v>
+        <v>22.41959176907808</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.82717837067885</v>
+        <v>8.25196084648652</v>
       </c>
       <c r="L18">
-        <v>6.582844734542793</v>
+        <v>10.04991421256068</v>
       </c>
       <c r="M18">
-        <v>10.12301621074563</v>
+        <v>13.35632977805968</v>
       </c>
       <c r="N18">
-        <v>12.19007480096037</v>
+        <v>18.95414671597686</v>
       </c>
       <c r="O18">
-        <v>12.87962625981929</v>
+        <v>21.47470195566292</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.39919447337965</v>
+        <v>11.04998021420429</v>
       </c>
       <c r="C19">
-        <v>7.165203214774027</v>
+        <v>9.869587366918942</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.002519673071005</v>
+        <v>12.93079601192033</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>18.65530810159359</v>
+        <v>27.88975738229833</v>
       </c>
       <c r="H19">
-        <v>8.206243162903112</v>
+        <v>14.20446201417392</v>
       </c>
       <c r="I19">
-        <v>13.17685141796421</v>
+        <v>22.42628789554281</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.7863712512185</v>
+        <v>8.232440369346811</v>
       </c>
       <c r="L19">
-        <v>6.574260689228681</v>
+        <v>10.04992073653978</v>
       </c>
       <c r="M19">
-        <v>10.09600299419779</v>
+        <v>13.35222220196631</v>
       </c>
       <c r="N19">
-        <v>12.20213912349547</v>
+        <v>18.95789609582379</v>
       </c>
       <c r="O19">
-        <v>12.88789244815279</v>
+        <v>21.48065537337628</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.67085264124238</v>
+        <v>11.14466141383053</v>
       </c>
       <c r="C20">
-        <v>7.172239688701968</v>
+        <v>9.869404237419669</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.013307506210598</v>
+        <v>12.9224139430525</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>18.67143965398352</v>
+        <v>27.85367035698209</v>
       </c>
       <c r="H20">
-        <v>8.175589915457449</v>
+        <v>14.18940818011266</v>
       </c>
       <c r="I20">
-        <v>13.11336871986649</v>
+        <v>22.39638415467543</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.96889218868793</v>
+        <v>8.319835683114139</v>
       </c>
       <c r="L20">
-        <v>6.61299736681271</v>
+        <v>10.0499798342737</v>
       </c>
       <c r="M20">
-        <v>10.21719047752882</v>
+        <v>13.37080207384161</v>
       </c>
       <c r="N20">
-        <v>12.14802670601965</v>
+        <v>18.94112600859096</v>
       </c>
       <c r="O20">
-        <v>12.85142891155668</v>
+        <v>21.45410835150804</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.54973014910251</v>
+        <v>11.45816898632342</v>
       </c>
       <c r="C21">
-        <v>7.196920639616631</v>
+        <v>9.869274990169108</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.05477243599616</v>
+        <v>12.89640345252965</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>18.75685723980652</v>
+        <v>27.74106196437187</v>
       </c>
       <c r="H21">
-        <v>8.077811014380307</v>
+        <v>14.14089584044674</v>
       </c>
       <c r="I21">
-        <v>12.9108736796551</v>
+        <v>22.29992687252276</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.56250795269911</v>
+        <v>8.605467709080239</v>
       </c>
       <c r="L21">
-        <v>6.744948218795437</v>
+        <v>10.05172170002478</v>
       </c>
       <c r="M21">
-        <v>10.61749595572875</v>
+        <v>13.43486260974675</v>
       </c>
       <c r="N21">
-        <v>11.96932274036753</v>
+        <v>18.88657179071522</v>
       </c>
       <c r="O21">
-        <v>12.74221548270705</v>
+        <v>21.36918518655076</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.09905698752611</v>
+        <v>11.65930132154757</v>
       </c>
       <c r="C22">
-        <v>7.213830982790961</v>
+        <v>9.86955018297661</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.085830164334261</v>
+        <v>12.88100611446644</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>18.83696493666511</v>
+        <v>27.6739285375292</v>
       </c>
       <c r="H22">
-        <v>8.017951900461853</v>
+        <v>14.11072805113351</v>
       </c>
       <c r="I22">
-        <v>12.78698298869976</v>
+        <v>22.23987626722269</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.93573450122056</v>
+        <v>8.786013790644239</v>
       </c>
       <c r="L22">
-        <v>6.832431138292145</v>
+        <v>10.05400443207145</v>
       </c>
       <c r="M22">
-        <v>10.8859587933052</v>
+        <v>13.47790700919878</v>
       </c>
       <c r="N22">
-        <v>11.85482717106681</v>
+        <v>18.85224813224369</v>
       </c>
       <c r="O22">
-        <v>12.68128905896912</v>
+        <v>21.31686740213822</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.80815417255727</v>
+        <v>11.55231778035409</v>
       </c>
       <c r="C23">
-        <v>7.204733896712582</v>
+        <v>9.869370565349863</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.068887705610893</v>
+        <v>12.88907751071895</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>18.79192488346685</v>
+        <v>27.70916606958522</v>
       </c>
       <c r="H23">
-        <v>8.049518961018851</v>
+        <v>14.1266886054192</v>
       </c>
       <c r="I23">
-        <v>12.8523053505944</v>
+        <v>22.27165301121129</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.73789038580279</v>
+        <v>8.69022389418746</v>
       </c>
       <c r="L23">
-        <v>6.785632056496437</v>
+        <v>10.05268178329994</v>
       </c>
       <c r="M23">
-        <v>10.73745966348832</v>
+        <v>13.45482838152177</v>
       </c>
       <c r="N23">
-        <v>11.91572641544442</v>
+        <v>18.87044582308692</v>
       </c>
       <c r="O23">
-        <v>12.71281495769244</v>
+        <v>21.34449894525912</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.65606225083228</v>
+        <v>11.13947844062273</v>
       </c>
       <c r="C24">
-        <v>7.171849381822179</v>
+        <v>9.86941245894546</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.012695634588473</v>
+        <v>12.92286614508579</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>18.67043900667107</v>
+        <v>27.85561964527625</v>
       </c>
       <c r="H24">
-        <v>8.177254030137258</v>
+        <v>14.19022708452609</v>
       </c>
       <c r="I24">
-        <v>13.11681524372738</v>
+        <v>22.39801121270391</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.95894253884828</v>
+        <v>8.31506601374466</v>
       </c>
       <c r="L24">
-        <v>6.610863109689593</v>
+        <v>10.04997076840171</v>
       </c>
       <c r="M24">
-        <v>10.21056034349702</v>
+        <v>13.36977550278912</v>
       </c>
       <c r="N24">
-        <v>12.15098656852671</v>
+        <v>18.94204019324461</v>
       </c>
       <c r="O24">
-        <v>12.85338262250301</v>
+        <v>21.45555012127429</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.3046612875676</v>
+        <v>10.68020074325863</v>
       </c>
       <c r="C25">
-        <v>7.139693372685428</v>
+        <v>9.871018525173666</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.96862286926843</v>
+        <v>12.96620318045849</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>18.6369323407454</v>
+        <v>28.04118387553025</v>
       </c>
       <c r="H25">
-        <v>8.331394864752834</v>
+        <v>14.26538160921793</v>
       </c>
       <c r="I25">
-        <v>13.43588962099146</v>
+        <v>22.54716398924598</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.05623913654738</v>
+        <v>7.885199616085576</v>
       </c>
       <c r="L25">
-        <v>6.428322929837218</v>
+        <v>10.05199676672479</v>
       </c>
       <c r="M25">
-        <v>9.621106448144772</v>
+        <v>13.28334973983436</v>
       </c>
       <c r="N25">
-        <v>12.41473598122229</v>
+        <v>19.0250067541705</v>
       </c>
       <c r="O25">
-        <v>13.04644763971252</v>
+        <v>21.58900238452614</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.33262446104749</v>
+        <v>12.21489702551666</v>
       </c>
       <c r="C2">
-        <v>9.873561027317718</v>
+        <v>7.11882749854496</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.00405383378493</v>
+        <v>7.949830801570227</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>28.20137921731904</v>
+        <v>18.68821702787514</v>
       </c>
       <c r="H2">
-        <v>14.32643615764225</v>
+        <v>8.457974136032195</v>
       </c>
       <c r="I2">
-        <v>22.66808073631774</v>
+        <v>13.69741342610248</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.552965008185082</v>
+        <v>10.3390224228084</v>
       </c>
       <c r="L2">
-        <v>10.05778039922445</v>
+        <v>6.299719327432102</v>
       </c>
       <c r="M2">
-        <v>13.22454778644626</v>
+        <v>9.171913901262549</v>
       </c>
       <c r="N2">
-        <v>19.09107358500509</v>
+        <v>12.61770490427607</v>
       </c>
       <c r="O2">
-        <v>21.69902459128792</v>
+        <v>13.22070455431146</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.09266965951187</v>
+        <v>11.41667495961859</v>
       </c>
       <c r="C3">
-        <v>9.876141332415109</v>
+        <v>7.106421115129681</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.03341924948185</v>
+        <v>7.945302073944059</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>28.3245588910671</v>
+        <v>18.766157973792</v>
       </c>
       <c r="H3">
-        <v>14.37139436651309</v>
+        <v>8.551486643157153</v>
       </c>
       <c r="I3">
-        <v>22.75696977219811</v>
+        <v>13.89017247892906</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.375224935248127</v>
+        <v>9.821106565465582</v>
       </c>
       <c r="L3">
-        <v>10.06439272228139</v>
+        <v>6.216507076724819</v>
       </c>
       <c r="M3">
-        <v>13.18783595214496</v>
+        <v>8.859855526867619</v>
       </c>
       <c r="N3">
-        <v>19.13897472483206</v>
+        <v>12.76082943465719</v>
       </c>
       <c r="O3">
-        <v>21.78092948427687</v>
+        <v>13.35718538871756</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.943704471466837</v>
+        <v>10.89695389060425</v>
       </c>
       <c r="C4">
-        <v>9.878151499105732</v>
+        <v>7.099653574321898</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.05328376789502</v>
+        <v>7.946457810676575</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>28.407370458478</v>
+        <v>18.83388801046715</v>
       </c>
       <c r="H4">
-        <v>14.40076975599295</v>
+        <v>8.612586452371408</v>
       </c>
       <c r="I4">
-        <v>22.81497937680768</v>
+        <v>14.01587032357842</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.264577680644237</v>
+        <v>9.487835196330415</v>
       </c>
       <c r="L4">
-        <v>10.06978560556042</v>
+        <v>6.167462943822285</v>
       </c>
       <c r="M4">
-        <v>13.16688245750329</v>
+        <v>8.665200062399018</v>
       </c>
       <c r="N4">
-        <v>19.16993558302467</v>
+        <v>12.85148963467667</v>
       </c>
       <c r="O4">
-        <v>21.83484237639931</v>
+        <v>13.44954730250924</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.88267535005374</v>
+        <v>10.67769598627584</v>
       </c>
       <c r="C5">
-        <v>9.879078213649187</v>
+        <v>7.0971087968956</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.0618402273675</v>
+        <v>7.947901439720518</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>28.4429174845152</v>
+        <v>18.86627276900255</v>
       </c>
       <c r="H5">
-        <v>14.41318638712132</v>
+        <v>8.638393207240998</v>
       </c>
       <c r="I5">
-        <v>22.83948252776553</v>
+        <v>14.06889658284694</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.21916851446175</v>
+        <v>9.348268834781319</v>
       </c>
       <c r="L5">
-        <v>10.07231912286326</v>
+        <v>6.148007089827634</v>
       </c>
       <c r="M5">
-        <v>13.15874887215216</v>
+        <v>8.585228718357635</v>
       </c>
       <c r="N5">
-        <v>19.182942934901</v>
+        <v>12.88913843224437</v>
       </c>
       <c r="O5">
-        <v>21.85772350044326</v>
+        <v>13.48926703223477</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.872524482396516</v>
+        <v>10.64083678887311</v>
       </c>
       <c r="C6">
-        <v>9.87923860372914</v>
+        <v>7.096699085855579</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.06328890390565</v>
+        <v>7.948199383044987</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>28.44892866180529</v>
+        <v>18.87193296098134</v>
       </c>
       <c r="H6">
-        <v>14.41527511026502</v>
+        <v>8.64273274542896</v>
       </c>
       <c r="I6">
-        <v>22.84360345408443</v>
+        <v>14.07780927930178</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.211610903360419</v>
+        <v>9.324869911367536</v>
       </c>
       <c r="L6">
-        <v>10.07276011674933</v>
+        <v>6.144808883934185</v>
       </c>
       <c r="M6">
-        <v>13.15742293148983</v>
+        <v>8.571914102540795</v>
       </c>
       <c r="N6">
-        <v>19.18512641213715</v>
+        <v>12.89543264731138</v>
       </c>
       <c r="O6">
-        <v>21.86157793193659</v>
+        <v>13.49598616236041</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.942882609715888</v>
+        <v>10.89402716380051</v>
       </c>
       <c r="C7">
-        <v>9.878163560986817</v>
+        <v>7.099618392846352</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.05339729425368</v>
+        <v>7.94647336492176</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>28.40784257339457</v>
+        <v>18.83430567303381</v>
       </c>
       <c r="H7">
-        <v>14.40093540466928</v>
+        <v>8.612930837232662</v>
       </c>
       <c r="I7">
-        <v>22.81530633627204</v>
+        <v>14.01657820680106</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.263966487480182</v>
+        <v>9.485968038326236</v>
       </c>
       <c r="L7">
-        <v>10.06981841263334</v>
+        <v>6.167198390502683</v>
       </c>
       <c r="M7">
-        <v>13.16677111720774</v>
+        <v>8.664123998216748</v>
       </c>
       <c r="N7">
-        <v>19.17010942212702</v>
+        <v>12.85199452262718</v>
       </c>
       <c r="O7">
-        <v>21.83514726966354</v>
+        <v>13.45007464044501</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.25027707746877</v>
+        <v>11.94580146871404</v>
       </c>
       <c r="C8">
-        <v>9.874362614908218</v>
+        <v>7.114372927841359</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.01379857645203</v>
+        <v>7.947442185104757</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>28.24235893221665</v>
+        <v>18.71083802990636</v>
       </c>
       <c r="H8">
-        <v>14.34157057885016</v>
+        <v>8.489441667203293</v>
       </c>
       <c r="I8">
-        <v>22.69801804509341</v>
+        <v>13.76232567264016</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.492030331981823</v>
+        <v>10.16365931152816</v>
       </c>
       <c r="L8">
-        <v>10.05978413012583</v>
+        <v>6.270611868819528</v>
       </c>
       <c r="M8">
-        <v>13.21156363738532</v>
+        <v>9.06501778824842</v>
       </c>
       <c r="N8">
-        <v>19.10726890039798</v>
+        <v>12.66647981606625</v>
       </c>
       <c r="O8">
-        <v>21.72651355033389</v>
+        <v>13.26594187082176</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.83655548192569</v>
+        <v>13.77451734470454</v>
       </c>
       <c r="C9">
-        <v>9.870267442974004</v>
+        <v>7.150086030414683</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.95068303718153</v>
+        <v>7.981307517224701</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>27.97500443315293</v>
+        <v>18.63587409582411</v>
       </c>
       <c r="H9">
-        <v>14.23917915583404</v>
+        <v>8.277377578428071</v>
       </c>
       <c r="I9">
-        <v>22.49520065803353</v>
+        <v>13.32412539943755</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.033252703753064</v>
+        <v>11.36857847126859</v>
       </c>
       <c r="L9">
-        <v>10.05064980230035</v>
+        <v>6.488955187641015</v>
       </c>
       <c r="M9">
-        <v>13.3117286990523</v>
+        <v>9.822242169926241</v>
       </c>
       <c r="N9">
-        <v>18.99628870347987</v>
+        <v>12.32454176541497</v>
       </c>
       <c r="O9">
-        <v>21.54222227566351</v>
+        <v>12.97619811711388</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.25274438842421</v>
+        <v>14.97725933471336</v>
       </c>
       <c r="C10">
-        <v>9.869279079210697</v>
+        <v>7.180512102097189</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.91315361893745</v>
+        <v>8.026621109552078</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>27.81368994030746</v>
+        <v>18.6953816328207</v>
       </c>
       <c r="H10">
-        <v>14.17246163711538</v>
+        <v>8.141246481267364</v>
       </c>
       <c r="I10">
-        <v>22.36270475388878</v>
+        <v>13.04223933521602</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.418933379144404</v>
+        <v>12.17532389152843</v>
       </c>
       <c r="L10">
-        <v>10.05031878277117</v>
+        <v>6.657860205569295</v>
       </c>
       <c r="M10">
-        <v>13.39245502167847</v>
+        <v>10.35535611000185</v>
       </c>
       <c r="N10">
-        <v>18.9221579454228</v>
+        <v>12.08635383741039</v>
       </c>
       <c r="O10">
-        <v>21.42433311739741</v>
+        <v>12.81179415229156</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.43806684933185</v>
+        <v>15.49424477212943</v>
       </c>
       <c r="C11">
-        <v>9.869262348402483</v>
+        <v>7.195276004935796</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.89799548058219</v>
+        <v>8.051856247425507</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>27.74798264632985</v>
+        <v>18.74992759991804</v>
       </c>
       <c r="H11">
-        <v>14.14394969246939</v>
+        <v>8.08391463035197</v>
       </c>
       <c r="I11">
-        <v>22.30600285414072</v>
+        <v>12.92351115930774</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.587313226804779</v>
+        <v>12.52489944987999</v>
       </c>
       <c r="L11">
-        <v>10.05154200688063</v>
+        <v>6.736323404463576</v>
       </c>
       <c r="M11">
-        <v>13.43064210171907</v>
+        <v>10.59186826906715</v>
       </c>
       <c r="N11">
-        <v>18.89002918414334</v>
+        <v>11.98076823638166</v>
       </c>
       <c r="O11">
-        <v>21.37450250922416</v>
+        <v>12.74869462939687</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.50760344027402</v>
+        <v>15.68571214022685</v>
       </c>
       <c r="C12">
-        <v>9.869317758266028</v>
+        <v>7.201000487056641</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.89253030366823</v>
+        <v>8.06209033532966</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>27.72420912001829</v>
+        <v>18.77473440707763</v>
       </c>
       <c r="H12">
-        <v>14.13341670743</v>
+        <v>8.062895534979502</v>
       </c>
       <c r="I12">
-        <v>22.28504405482627</v>
+        <v>12.87999437800851</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.650025345616282</v>
+        <v>12.65474897175542</v>
       </c>
       <c r="L12">
-        <v>10.05220163818679</v>
+        <v>6.766250839229058</v>
       </c>
       <c r="M12">
-        <v>13.44530533383967</v>
+        <v>10.68049785571991</v>
       </c>
       <c r="N12">
-        <v>18.87809107747663</v>
+        <v>11.94117970915305</v>
       </c>
       <c r="O12">
-        <v>21.35617904901484</v>
+        <v>12.7265843633427</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.4926569853929</v>
+        <v>15.64466711603883</v>
       </c>
       <c r="C13">
-        <v>9.869303086665285</v>
+        <v>7.199761653603086</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.89369510820745</v>
+        <v>8.059855878699301</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>27.72927980499056</v>
+        <v>18.7692041098097</v>
       </c>
       <c r="H13">
-        <v>14.1356734457426</v>
+        <v>8.067391117406929</v>
       </c>
       <c r="I13">
-        <v>22.28953510076072</v>
+        <v>12.88930102475466</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.636566340229653</v>
+        <v>12.62689623153146</v>
       </c>
       <c r="L13">
-        <v>10.05205085765852</v>
+        <v>6.759796160591758</v>
       </c>
       <c r="M13">
-        <v>13.44213846222876</v>
+        <v>10.66145236041632</v>
       </c>
       <c r="N13">
-        <v>18.88065201887973</v>
+        <v>11.94968831519744</v>
       </c>
       <c r="O13">
-        <v>21.3601010334577</v>
+        <v>12.73126515564504</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.44380086899761</v>
+        <v>15.51008297798658</v>
       </c>
       <c r="C14">
-        <v>9.869265672427908</v>
+        <v>7.195744275675642</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.89754035042348</v>
+        <v>8.05268454825509</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>27.74600454375926</v>
+        <v>18.75188416172248</v>
       </c>
       <c r="H14">
-        <v>14.14307785170242</v>
+        <v>8.082171339561265</v>
       </c>
       <c r="I14">
-        <v>22.30426828326248</v>
+        <v>12.9199016245726</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.592493803816462</v>
+        <v>12.53563299937611</v>
       </c>
       <c r="L14">
-        <v>10.05159234529092</v>
+        <v>6.738781348304804</v>
       </c>
       <c r="M14">
-        <v>13.43184444034222</v>
+        <v>10.59917892865252</v>
       </c>
       <c r="N14">
-        <v>18.88904245690141</v>
+        <v>11.97750337774343</v>
       </c>
       <c r="O14">
-        <v>21.37298407708377</v>
+        <v>12.7468392377991</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.4137897590786</v>
+        <v>15.42708677914618</v>
       </c>
       <c r="C15">
-        <v>9.869250781221513</v>
+        <v>7.193300960208584</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.89993145826397</v>
+        <v>8.048380592321221</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>27.7563934118627</v>
+        <v>18.74182159153344</v>
       </c>
       <c r="H15">
-        <v>14.14764761432035</v>
+        <v>8.091315620172852</v>
       </c>
       <c r="I15">
-        <v>22.31335957229667</v>
+        <v>12.9388356862141</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.565360485808981</v>
+        <v>12.47940198014585</v>
       </c>
       <c r="L15">
-        <v>10.0513370384026</v>
+        <v>6.725936628562539</v>
       </c>
       <c r="M15">
-        <v>13.42556520102098</v>
+        <v>10.56091133130206</v>
       </c>
       <c r="N15">
-        <v>18.89421155749079</v>
+        <v>11.99459217833736</v>
       </c>
       <c r="O15">
-        <v>21.38094646503981</v>
+        <v>12.75661431425432</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.24054686830191</v>
+        <v>14.94286912731403</v>
       </c>
       <c r="C16">
-        <v>9.869288840450011</v>
+        <v>7.179565901094205</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.91418272572754</v>
+        <v>8.025066110256853</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>27.81813891966365</v>
+        <v>18.69238719156535</v>
       </c>
       <c r="H16">
-        <v>14.17436190924619</v>
+        <v>8.145088262004043</v>
       </c>
       <c r="I16">
-        <v>22.36648216957692</v>
+        <v>13.05019610616896</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.40778419138846</v>
+        <v>12.15212572627789</v>
       </c>
       <c r="L16">
-        <v>10.0502663920515</v>
+        <v>6.652763577840892</v>
       </c>
       <c r="M16">
-        <v>13.38998819734031</v>
+        <v>10.33977255122858</v>
       </c>
       <c r="N16">
-        <v>18.92428963490222</v>
+        <v>12.09330948371588</v>
       </c>
       <c r="O16">
-        <v>21.42766610189482</v>
+        <v>12.8161617802265</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.13319444208167</v>
+        <v>14.63811766093503</v>
       </c>
       <c r="C17">
-        <v>9.869422703853758</v>
+        <v>7.171376952117742</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.92341542685701</v>
+        <v>8.0119570735473</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>27.85798703417264</v>
+        <v>18.66924398580316</v>
       </c>
       <c r="H17">
-        <v>14.19122073737043</v>
+        <v>8.179273793076442</v>
       </c>
       <c r="I17">
-        <v>22.39998542064902</v>
+        <v>13.12099832867626</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.309280908587628</v>
+        <v>11.94687290511755</v>
       </c>
       <c r="L17">
-        <v>10.04996067251793</v>
+        <v>6.608277589976392</v>
       </c>
       <c r="M17">
-        <v>13.36853231713309</v>
+        <v>10.20252118039295</v>
       </c>
       <c r="N17">
-        <v>18.94314916144975</v>
+        <v>12.1545755322238</v>
       </c>
       <c r="O17">
-        <v>21.45729991796849</v>
+        <v>12.85575791376698</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.07107487507228</v>
+        <v>14.45999305197106</v>
       </c>
       <c r="C18">
-        <v>9.869540473685198</v>
+        <v>7.166753691301368</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.92890602865321</v>
+        <v>8.004851378593255</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>27.88162879704357</v>
+        <v>18.65850739316068</v>
       </c>
       <c r="H18">
-        <v>14.20109053521898</v>
+        <v>8.199366921439836</v>
       </c>
       <c r="I18">
-        <v>22.41959176907808</v>
+        <v>13.16261139332581</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.25196084648652</v>
+        <v>11.82717837067886</v>
       </c>
       <c r="L18">
-        <v>10.04991421256068</v>
+        <v>6.582844734542776</v>
       </c>
       <c r="M18">
-        <v>13.35632977805968</v>
+        <v>10.12301621074564</v>
       </c>
       <c r="N18">
-        <v>18.95414671597686</v>
+        <v>12.19007480096036</v>
       </c>
       <c r="O18">
-        <v>21.47470195566292</v>
+        <v>12.8796262598193</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.04998021420429</v>
+        <v>14.39919447337969</v>
       </c>
       <c r="C19">
-        <v>9.869587366918942</v>
+        <v>7.165203214773894</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.93079601192033</v>
+        <v>8.002519673070903</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>27.88975738229833</v>
+        <v>18.65530810159381</v>
       </c>
       <c r="H19">
-        <v>14.20446201417392</v>
+        <v>8.206243162903116</v>
       </c>
       <c r="I19">
-        <v>22.42628789554281</v>
+        <v>13.17685141796431</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.232440369346811</v>
+        <v>11.78637125121852</v>
       </c>
       <c r="L19">
-        <v>10.04992073653978</v>
+        <v>6.574260689228669</v>
       </c>
       <c r="M19">
-        <v>13.35222220196631</v>
+        <v>10.0960029941978</v>
       </c>
       <c r="N19">
-        <v>18.95789609582379</v>
+        <v>12.20213912349556</v>
       </c>
       <c r="O19">
-        <v>21.48065537337628</v>
+        <v>12.88789244815288</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.14466141383053</v>
+        <v>14.67085264124247</v>
       </c>
       <c r="C20">
-        <v>9.869404237419669</v>
+        <v>7.172239688701968</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.9224139430525</v>
+        <v>8.013307506210596</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>27.85367035698209</v>
+        <v>18.67143965398369</v>
       </c>
       <c r="H20">
-        <v>14.18940818011266</v>
+        <v>8.17558991545733</v>
       </c>
       <c r="I20">
-        <v>22.39638415467543</v>
+        <v>13.11336871986651</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.319835683114139</v>
+        <v>11.968892188688</v>
       </c>
       <c r="L20">
-        <v>10.0499798342737</v>
+        <v>6.612997366812706</v>
       </c>
       <c r="M20">
-        <v>13.37080207384161</v>
+        <v>10.21719047752879</v>
       </c>
       <c r="N20">
-        <v>18.94112600859096</v>
+        <v>12.14802670601971</v>
       </c>
       <c r="O20">
-        <v>21.45410835150804</v>
+        <v>12.85142891155671</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.45816898632342</v>
+        <v>15.54973014910251</v>
       </c>
       <c r="C21">
-        <v>9.869274990169108</v>
+        <v>7.196920639616752</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.89640345252965</v>
+        <v>8.054772435996158</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>27.74106196437187</v>
+        <v>18.75685723980652</v>
       </c>
       <c r="H21">
-        <v>14.14089584044674</v>
+        <v>8.077811014380304</v>
       </c>
       <c r="I21">
-        <v>22.29992687252276</v>
+        <v>12.9108736796551</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.605467709080239</v>
+        <v>12.56250795269911</v>
       </c>
       <c r="L21">
-        <v>10.05172170002478</v>
+        <v>6.74494821879543</v>
       </c>
       <c r="M21">
-        <v>13.43486260974675</v>
+        <v>10.61749595572875</v>
       </c>
       <c r="N21">
-        <v>18.88657179071522</v>
+        <v>11.96932274036753</v>
       </c>
       <c r="O21">
-        <v>21.36918518655076</v>
+        <v>12.74221548270704</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.65930132154757</v>
+        <v>16.0990569875261</v>
       </c>
       <c r="C22">
-        <v>9.86955018297661</v>
+        <v>7.213830982790956</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.88100611446644</v>
+        <v>8.085830164334308</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>27.6739285375292</v>
+        <v>18.83696493666507</v>
       </c>
       <c r="H22">
-        <v>14.11072805113351</v>
+        <v>8.017951900461853</v>
       </c>
       <c r="I22">
-        <v>22.23987626722269</v>
+        <v>12.78698298869974</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.786013790644239</v>
+        <v>12.93573450122056</v>
       </c>
       <c r="L22">
-        <v>10.05400443207145</v>
+        <v>6.832431138292167</v>
       </c>
       <c r="M22">
-        <v>13.47790700919878</v>
+        <v>10.88595879330517</v>
       </c>
       <c r="N22">
-        <v>18.85224813224369</v>
+        <v>11.85482717106674</v>
       </c>
       <c r="O22">
-        <v>21.31686740213822</v>
+        <v>12.68128905896907</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.55231778035409</v>
+        <v>15.80815417255729</v>
       </c>
       <c r="C23">
-        <v>9.869370565349863</v>
+        <v>7.204733896712701</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.88907751071895</v>
+        <v>8.068887705610901</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>27.70916606958522</v>
+        <v>18.7919248834669</v>
       </c>
       <c r="H23">
-        <v>14.1266886054192</v>
+        <v>8.049518961018801</v>
       </c>
       <c r="I23">
-        <v>22.27165301121129</v>
+        <v>12.85230535059436</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.69022389418746</v>
+        <v>12.73789038580282</v>
       </c>
       <c r="L23">
-        <v>10.05268178329994</v>
+        <v>6.785632056496434</v>
       </c>
       <c r="M23">
-        <v>13.45482838152177</v>
+        <v>10.7374596634883</v>
       </c>
       <c r="N23">
-        <v>18.87044582308692</v>
+        <v>11.91572641544442</v>
       </c>
       <c r="O23">
-        <v>21.34449894525912</v>
+        <v>12.71281495769242</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.13947844062273</v>
+        <v>14.65606225083229</v>
       </c>
       <c r="C24">
-        <v>9.86941245894546</v>
+        <v>7.171849381822041</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.92286614508579</v>
+        <v>8.012695634588422</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>27.85561964527625</v>
+        <v>18.6704390066711</v>
       </c>
       <c r="H24">
-        <v>14.19022708452609</v>
+        <v>8.177254030137258</v>
       </c>
       <c r="I24">
-        <v>22.39801121270391</v>
+        <v>13.11681524372738</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.31506601374466</v>
+        <v>11.95894253884827</v>
       </c>
       <c r="L24">
-        <v>10.04997076840171</v>
+        <v>6.610863109689544</v>
       </c>
       <c r="M24">
-        <v>13.36977550278912</v>
+        <v>10.210560343497</v>
       </c>
       <c r="N24">
-        <v>18.94204019324461</v>
+        <v>12.15098656852671</v>
       </c>
       <c r="O24">
-        <v>21.45555012127429</v>
+        <v>12.85338262250302</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.68020074325863</v>
+        <v>13.3046612875676</v>
       </c>
       <c r="C25">
-        <v>9.871018525173666</v>
+        <v>7.139693372685671</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.96620318045849</v>
+        <v>7.968622869268449</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>28.04118387553025</v>
+        <v>18.63693234074545</v>
       </c>
       <c r="H25">
-        <v>14.26538160921793</v>
+        <v>8.331394864752841</v>
       </c>
       <c r="I25">
-        <v>22.54716398924598</v>
+        <v>13.43588962099153</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.885199616085576</v>
+        <v>11.05623913654737</v>
       </c>
       <c r="L25">
-        <v>10.05199676672479</v>
+        <v>6.428322929837129</v>
       </c>
       <c r="M25">
-        <v>13.28334973983436</v>
+        <v>9.621106448144785</v>
       </c>
       <c r="N25">
-        <v>19.0250067541705</v>
+        <v>12.41473598122232</v>
       </c>
       <c r="O25">
-        <v>21.58900238452614</v>
+        <v>13.04644763971253</v>
       </c>
     </row>
   </sheetData>
